--- a/sunken_world_project.xlsx
+++ b/sunken_world_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbydd\Documents\gitProject\SunkenWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1701468C-6CB5-4C97-B046-B57B2FCDD5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB63B16-CC02-422B-91B0-5D5357ED70C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
   </bookViews>
   <sheets>
     <sheet name="注释" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="109">
   <si>
     <t>循环呼吸器</t>
   </si>
@@ -129,9 +129,6 @@
     <t>投掷式海绵</t>
   </si>
   <si>
-    <t>粘合剂</t>
-  </si>
-  <si>
     <t>隔水涂料</t>
   </si>
   <si>
@@ -144,12 +141,6 @@
     <t>隔水熔炉</t>
   </si>
   <si>
-    <t>隔水高炉</t>
-  </si>
-  <si>
-    <t>隔水烟熏炉</t>
-  </si>
-  <si>
     <t>氧气植物</t>
   </si>
   <si>
@@ -168,15 +159,9 @@
     <t>地狱熔炉</t>
   </si>
   <si>
-    <t>隔水熔炉/高炉/烟熏炉</t>
-  </si>
-  <si>
     <t>和普通的熔炉比起来多加一个氧化剂格子，燃烧同时消耗燃料和氧化剂</t>
   </si>
   <si>
-    <t>不消耗燃料和氧化剂，但是需要用打火石点火，有时会熄灭，但至少烧八个物品</t>
-  </si>
-  <si>
     <t>泡水的咖啡豆</t>
   </si>
   <si>
@@ -261,9 +246,6 @@
     <t>这是贴图已完成</t>
   </si>
   <si>
-    <t>流线涂料</t>
-  </si>
-  <si>
     <t>underwater_thruster</t>
   </si>
   <si>
@@ -273,18 +255,12 @@
     <t>throwable_underwater_touch</t>
   </si>
   <si>
-    <t>swift_paint</t>
-  </si>
-  <si>
     <t>throwable_sponge</t>
   </si>
   <si>
     <t>sponge_on_a_stick</t>
   </si>
   <si>
-    <t>adhesive</t>
-  </si>
-  <si>
     <t>water_repellent</t>
   </si>
   <si>
@@ -297,12 +273,6 @@
     <t>nether_furnace</t>
   </si>
   <si>
-    <t>water_proof_blast_furnace</t>
-  </si>
-  <si>
-    <t>water_proof_smoker</t>
-  </si>
-  <si>
     <t>oxygen_plant</t>
   </si>
   <si>
@@ -346,12 +316,6 @@
   </si>
   <si>
     <t>grace_of_ocean_Pendant</t>
-  </si>
-  <si>
-    <t>防护剂</t>
-  </si>
-  <si>
-    <t>protective_agent</t>
   </si>
   <si>
     <t>双击 蹲下 的时候可以向前瞬移一段距离，能穿墙，但不能卡墙（如果会卡墙就瞬移到墙前面</t>
@@ -402,6 +366,9 @@
   </si>
   <si>
     <t>氧气罐hud</t>
+  </si>
+  <si>
+    <t>地狱熔炉只要打火石点燃就能燃烧，至少燃烧800tick后随机熄灭，如果有燃料则不会熄灭，而且燃烧速度加倍</t>
   </si>
 </sst>
 </file>
@@ -831,12 +798,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -847,10 +814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8374E034-249B-4F80-8ECB-EE90BEEF9C5D}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,15 +832,15 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -881,87 +848,63 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>77</v>
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
+      <c r="A6" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
         <v>102</v>
-      </c>
-      <c r="B10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -971,10 +914,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9745FCB9-6E30-4484-A5FA-5F21001E229E}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,89 +931,73 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1082,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0379C365-E94A-4A62-8140-F76FFAF41C69}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,23 +1021,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B3" s="3"/>
     </row>
@@ -1123,7 +1050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D915CF-F878-49C2-B7D6-286849B6BDEF}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -1193,7 +1120,7 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1202,7 +1129,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1216,7 +1143,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1230,7 +1157,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1247,12 +1174,12 @@
         <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1266,12 +1193,12 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1279,13 +1206,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1293,13 +1220,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1307,18 +1234,18 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1327,10 +1254,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1344,15 +1271,15 @@
         <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1361,13 +1288,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1376,7 +1303,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G13" s="8"/>
     </row>
@@ -1407,32 +1334,32 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1460,51 +1387,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/sunken_world_project.xlsx
+++ b/sunken_world_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbydd\Documents\gitProject\SunkenWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB63B16-CC02-422B-91B0-5D5357ED70C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907BBD6B-E1B6-478A-A430-71F09EF19AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
   </bookViews>
   <sheets>
     <sheet name="注释" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="118">
   <si>
     <t>循环呼吸器</t>
   </si>
@@ -369,6 +369,33 @@
   </si>
   <si>
     <t>地狱熔炉只要打火石点燃就能燃烧，至少燃烧800tick后随机熄灭，如果有燃料则不会熄灭，而且燃烧速度加倍</t>
+  </si>
+  <si>
+    <t>破碎的海洋吊坠</t>
+  </si>
+  <si>
+    <t>grace_of_ocean_Pendant_broken</t>
+  </si>
+  <si>
+    <t>注：玩家出生时获得，佩戴并淹死进入海洋生物群系</t>
+  </si>
+  <si>
+    <t>attribute:遥远呼唤</t>
+  </si>
+  <si>
+    <t>这是已取消</t>
+  </si>
+  <si>
+    <t>注：有点麻烦，考虑放弃</t>
+  </si>
+  <si>
+    <t>主世界信标</t>
+  </si>
+  <si>
+    <t>注：两种形态，充充能和已充能</t>
+  </si>
+  <si>
+    <t>overworld_beacon</t>
   </si>
 </sst>
 </file>
@@ -399,7 +426,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,6 +457,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -444,7 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -457,6 +490,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -773,7 +810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DB93D6-1B2B-464C-A05E-8DA888751065}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -781,30 +818,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>67</v>
       </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -817,7 +860,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,32 +957,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9745FCB9-6E30-4484-A5FA-5F21001E229E}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -953,6 +997,9 @@
       <c r="D2" t="s">
         <v>77</v>
       </c>
+      <c r="E2" s="10" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -961,46 +1008,61 @@
       <c r="D3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>36</v>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1009,7 +1071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0379C365-E94A-4A62-8140-F76FFAF41C69}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1051,7 +1113,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,10 +1151,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1103,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C2602A-B170-4AA5-8024-D9ED6D42ABDA}">
-  <dimension ref="A2:G13"/>
+  <dimension ref="A2:G14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,6 +1368,26 @@
         <v>104</v>
       </c>
       <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1375,7 +1457,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sunken_world_project.xlsx
+++ b/sunken_world_project.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbydd\Documents\gitProject\SunkenWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907BBD6B-E1B6-478A-A430-71F09EF19AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7384F68-0AD2-44C5-83DA-37F536AC9CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
   </bookViews>
   <sheets>
     <sheet name="注释" sheetId="5" r:id="rId1"/>
     <sheet name="物品" sheetId="1" r:id="rId2"/>
     <sheet name="方块" sheetId="2" r:id="rId3"/>
-    <sheet name="ui" sheetId="6" r:id="rId4"/>
-    <sheet name="生物" sheetId="3" r:id="rId5"/>
-    <sheet name="装备" sheetId="4" r:id="rId6"/>
-    <sheet name="特殊贴图" sheetId="7" r:id="rId7"/>
-    <sheet name="待办" sheetId="8" r:id="rId8"/>
+    <sheet name="生物群系" sheetId="9" r:id="rId4"/>
+    <sheet name="ui" sheetId="6" r:id="rId5"/>
+    <sheet name="生物" sheetId="3" r:id="rId6"/>
+    <sheet name="装备" sheetId="4" r:id="rId7"/>
+    <sheet name="特殊贴图" sheetId="7" r:id="rId8"/>
+    <sheet name="待办" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="122">
   <si>
     <t>循环呼吸器</t>
   </si>
@@ -392,10 +393,22 @@
     <t>主世界信标</t>
   </si>
   <si>
-    <t>注：两种形态，充充能和已充能</t>
-  </si>
-  <si>
     <t>overworld_beacon</t>
+  </si>
+  <si>
+    <t>神秘海域</t>
+  </si>
+  <si>
+    <t>mystery_ocean</t>
+  </si>
+  <si>
+    <t>在此处带着损坏的海洋吊坠淹死会传送到沉没世界</t>
+  </si>
+  <si>
+    <t>注：两种形态，充充能和已充能，有玩家靠近且带着海洋加护吊坠时激活</t>
+  </si>
+  <si>
+    <t>顺便，来折腾一下新维度生物群系，要死力</t>
   </si>
 </sst>
 </file>
@@ -485,15 +498,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -844,10 +857,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -959,14 +972,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9745FCB9-6E30-4484-A5FA-5F21001E229E}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
@@ -997,7 +1010,7 @@
       <c r="D2" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1008,17 +1021,17 @@
       <c r="D3" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>115</v>
       </c>
       <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s">
         <v>116</v>
-      </c>
-      <c r="D4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1068,6 +1081,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5414E55-C492-452D-BC7F-8894AD562647}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0379C365-E94A-4A62-8140-F76FFAF41C69}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1108,7 +1152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D915CF-F878-49C2-B7D6-286849B6BDEF}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1151,10 +1195,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1163,7 +1207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C2602A-B170-4AA5-8024-D9ED6D42ABDA}">
   <dimension ref="A2:G14"/>
   <sheetViews>
@@ -1335,7 +1379,7 @@
       <c r="D11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="9" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1352,7 +1396,7 @@
       <c r="D12" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1367,7 +1411,7 @@
       <c r="D13" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -1397,7 +1441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFE30FE-1FE9-4127-A553-7668B36EA90C}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1452,7 +1496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE0BE26-BCA9-4F90-A30D-8296E992CCCF}">
   <dimension ref="A1:C8"/>
   <sheetViews>

--- a/sunken_world_project.xlsx
+++ b/sunken_world_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbydd\Documents\gitProject\SunkenWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7384F68-0AD2-44C5-83DA-37F536AC9CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B539C9A-9FE3-43B5-8B26-5B5B131F9C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
   <si>
     <t>循环呼吸器</t>
   </si>
@@ -358,14 +358,6 @@
     <t>grace_of_strata_Pendant</t>
   </si>
   <si>
-    <t>赋予玩家潮涌之力</t>
-  </si>
-  <si>
-    <t>当玩家获得相应的加护吊坠后才能在对应的区域通行无阻，海洋吊坠是特例，只是提供增益buff
-天空对应海平面以上，地层对应海底以下，都可以通过配置修改高度
-注：要不整点花活，比如能用天空吊坠放阳光枪之类的</t>
-  </si>
-  <si>
     <t>氧气罐hud</t>
   </si>
   <si>
@@ -378,12 +370,6 @@
     <t>grace_of_ocean_Pendant_broken</t>
   </si>
   <si>
-    <t>注：玩家出生时获得，佩戴并淹死进入海洋生物群系</t>
-  </si>
-  <si>
-    <t>attribute:遥远呼唤</t>
-  </si>
-  <si>
     <t>这是已取消</t>
   </si>
   <si>
@@ -409,6 +395,9 @@
   </si>
   <si>
     <t>顺便，来折腾一下新维度生物群系，要死力</t>
+  </si>
+  <si>
+    <t>注：玩家翻箱子获得，佩戴并淹死进入海洋生物群系</t>
   </si>
 </sst>
 </file>
@@ -858,7 +847,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B6" s="7"/>
     </row>
@@ -1011,7 +1000,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1025,13 +1014,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1085,25 +1074,25 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1138,12 +1127,12 @@
         <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" s="3"/>
     </row>
@@ -1212,7 +1201,7 @@
   <dimension ref="A2:G14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,9 +1351,7 @@
       <c r="D10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -1379,9 +1366,7 @@
       <c r="D11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>106</v>
-      </c>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -1415,7 +1400,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1424,13 +1409,11 @@
         <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>112</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E14" s="5"/>
       <c r="G14" s="5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/sunken_world_project.xlsx
+++ b/sunken_world_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbydd\Documents\gitProject\SunkenWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B539C9A-9FE3-43B5-8B26-5B5B131F9C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CEA87F-1C34-4F29-B47C-008BA12DD6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
   </bookViews>
   <sheets>
     <sheet name="注释" sheetId="5" r:id="rId1"/>
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8374E034-249B-4F80-8ECB-EE90BEEF9C5D}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,7 +1073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5414E55-C492-452D-BC7F-8894AD562647}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -1484,7 +1484,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,7 +1511,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>58</v>
       </c>
     </row>

--- a/sunken_world_project.xlsx
+++ b/sunken_world_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbydd\Documents\gitProject\SunkenWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CEA87F-1C34-4F29-B47C-008BA12DD6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83889BF-4114-4C4E-81E3-2529ED75EDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
   </bookViews>
   <sheets>
     <sheet name="注释" sheetId="5" r:id="rId1"/>
@@ -861,7 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8374E034-249B-4F80-8ECB-EE90BEEF9C5D}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -962,7 +962,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,7 +1200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C2602A-B170-4AA5-8024-D9ED6D42ABDA}">
   <dimension ref="A2:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>

--- a/sunken_world_project.xlsx
+++ b/sunken_world_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbydd\Documents\gitProject\SunkenWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83889BF-4114-4C4E-81E3-2529ED75EDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F757DAB-5E3E-45CA-833B-B1E1F546CE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
   </bookViews>
   <sheets>
     <sheet name="注释" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="117">
   <si>
     <t>循环呼吸器</t>
   </si>
@@ -133,9 +133,6 @@
     <t>隔水涂料</t>
   </si>
   <si>
-    <t>水下火把</t>
-  </si>
-  <si>
     <t>氧化剂</t>
   </si>
   <si>
@@ -248,9 +245,6 @@
   </si>
   <si>
     <t>underwater_thruster</t>
-  </si>
-  <si>
-    <t>underwater_torch</t>
   </si>
   <si>
     <t>throwable_underwater_touch</t>
@@ -837,17 +831,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" s="7"/>
     </row>
@@ -859,10 +853,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8374E034-249B-4F80-8ECB-EE90BEEF9C5D}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,79 +871,71 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
         <v>97</v>
-      </c>
-      <c r="B8" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -976,89 +962,89 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1074,25 +1060,25 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
         <v>113</v>
-      </c>
-      <c r="B1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1116,23 +1102,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" s="3"/>
     </row>
@@ -1200,7 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C2602A-B170-4AA5-8024-D9ED6D42ABDA}">
   <dimension ref="A2:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -1215,7 +1201,7 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1224,7 +1210,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1238,7 +1224,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1252,7 +1238,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1269,12 +1255,12 @@
         <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1288,12 +1274,12 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1301,13 +1287,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1315,13 +1301,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1329,18 +1315,18 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1349,7 +1335,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G10" s="5"/>
     </row>
@@ -1364,13 +1350,13 @@
         <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1379,13 +1365,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1394,13 +1380,13 @@
         <v>5</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1409,11 +1395,11 @@
         <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E14" s="5"/>
       <c r="G14" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1429,7 +1415,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="C9:D9"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,32 +1429,32 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
         <v>53</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1496,51 +1482,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
         <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/sunken_world_project.xlsx
+++ b/sunken_world_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbydd\Documents\gitProject\SunkenWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F757DAB-5E3E-45CA-833B-B1E1F546CE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB7F71D-BA77-4213-8357-45338C4D6910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
+    <workbookView xWindow="1080" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="7" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
   </bookViews>
   <sheets>
     <sheet name="注释" sheetId="5" r:id="rId1"/>
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8374E034-249B-4F80-8ECB-EE90BEEF9C5D}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,7 +1414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFE30FE-1FE9-4127-A553-7668B36EA90C}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>

--- a/sunken_world_project.xlsx
+++ b/sunken_world_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbydd\Documents\gitProject\SunkenWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB7F71D-BA77-4213-8357-45338C4D6910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E86706D-5D90-4C28-94DC-B51219C1A64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="7" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
   </bookViews>
   <sheets>
     <sheet name="注释" sheetId="5" r:id="rId1"/>
@@ -274,9 +274,6 @@
     <t>oxygen_coral</t>
   </si>
   <si>
-    <t>glow_seaweed</t>
-  </si>
-  <si>
     <t>damp_cocoa_beans</t>
   </si>
   <si>
@@ -392,6 +389,9 @@
   </si>
   <si>
     <t>注：玩家翻箱子获得，佩戴并淹死进入海洋生物群系</t>
+  </si>
+  <si>
+    <t>gloil_kelp</t>
   </si>
 </sst>
 </file>
@@ -809,7 +809,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +841,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="7"/>
     </row>
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8374E034-249B-4F80-8ECB-EE90BEEF9C5D}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,10 +883,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -916,26 +916,26 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
         <v>96</v>
-      </c>
-      <c r="B8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
         <v>99</v>
-      </c>
-      <c r="B9" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -948,12 +948,12 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
@@ -986,7 +986,7 @@
         <v>75</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -999,15 +999,17 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" t="s">
-        <v>110</v>
-      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1019,7 +1021,7 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1030,7 +1032,7 @@
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1044,7 +1046,7 @@
         <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1067,18 +1069,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
         <v>111</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>112</v>
-      </c>
-      <c r="C1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1113,12 +1115,12 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="3"/>
     </row>
@@ -1210,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1224,7 +1226,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1238,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1255,12 +1257,12 @@
         <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1274,12 +1276,12 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1293,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1307,7 +1309,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1321,12 +1323,12 @@
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1335,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G10" s="5"/>
     </row>
@@ -1350,13 +1352,13 @@
         <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1365,13 +1367,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1380,13 +1382,13 @@
         <v>5</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1395,11 +1397,11 @@
         <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" s="5"/>
       <c r="G14" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1414,7 +1416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFE30FE-1FE9-4127-A553-7668B36EA90C}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>

--- a/sunken_world_project.xlsx
+++ b/sunken_world_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbydd\Documents\gitProject\SunkenWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E86706D-5D90-4C28-94DC-B51219C1A64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50D2F54-9FCD-47AA-ABF0-5F8AC59F84B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
   </bookViews>
   <sheets>
     <sheet name="注释" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="118">
   <si>
     <t>循环呼吸器</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>gloil_kelp</t>
+  </si>
+  <si>
+    <t>两种方块，茎可以发光，照抄原版海带，property为：oil_seed</t>
   </si>
 </sst>
 </file>
@@ -855,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8374E034-249B-4F80-8ECB-EE90BEEF9C5D}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,10 +878,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -948,7 +951,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,10 +1020,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B7" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1062,7 +1069,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,7 +1100,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,10 +1126,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1471,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE0BE26-BCA9-4F90-A30D-8296E992CCCF}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sunken_world_project.xlsx
+++ b/sunken_world_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbydd\Documents\gitProject\SunkenWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50D2F54-9FCD-47AA-ABF0-5F8AC59F84B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39211E86-1AA6-46E2-81E3-D44439E53D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
   </bookViews>
   <sheets>
     <sheet name="注释" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="121">
   <si>
     <t>循环呼吸器</t>
   </si>
@@ -395,6 +395,15 @@
   </si>
   <si>
     <t>两种方块，茎可以发光，照抄原版海带，property为：oil_seed</t>
+  </si>
+  <si>
+    <t>食人鱼</t>
+  </si>
+  <si>
+    <t>Piranha</t>
+  </si>
+  <si>
+    <t>碰撞箱高宽0.5</t>
   </si>
 </sst>
 </file>
@@ -812,7 +821,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,7 +868,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,52 +1147,63 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D915CF-F878-49C2-B7D6-286849B6BDEF}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1478,7 +1498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE0BE26-BCA9-4F90-A30D-8296E992CCCF}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>

--- a/sunken_world_project.xlsx
+++ b/sunken_world_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbydd\Documents\gitProject\SunkenWorld\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\IdeaProjects\Sunken-World\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39211E86-1AA6-46E2-81E3-D44439E53D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C05E20-6DB5-48EE-8B31-82850DD4EBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
   </bookViews>
   <sheets>
     <sheet name="注释" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="128">
   <si>
     <t>循环呼吸器</t>
   </si>
@@ -404,17 +404,45 @@
   </si>
   <si>
     <t>碰撞箱高宽0.5</t>
+  </si>
+  <si>
+    <t>红珊瑚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>四周需要有完整方块依附，否则会脱落</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有四个方向</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>red_coral</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>海蘑菇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea_shroom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下方方块为砂砾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -422,15 +450,22 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -824,40 +859,41 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B6" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -871,14 +907,14 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -886,7 +922,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -894,7 +930,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
@@ -902,7 +938,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -910,7 +946,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
@@ -918,7 +954,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
@@ -926,7 +962,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>94</v>
       </c>
@@ -934,7 +970,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>95</v>
       </c>
@@ -942,7 +978,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>98</v>
       </c>
@@ -951,28 +987,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9745FCB9-6E30-4484-A5FA-5F21001E229E}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
@@ -987,7 +1024,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1001,7 +1038,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1010,7 +1047,7 @@
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>108</v>
       </c>
@@ -1023,12 +1060,12 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
@@ -1040,7 +1077,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -1051,7 +1088,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1063,13 +1100,40 @@
       </c>
       <c r="D9" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E3"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1081,9 +1145,9 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>110</v>
       </c>
@@ -1094,12 +1158,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1112,13 +1177,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1126,7 +1191,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
@@ -1134,13 +1199,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1149,13 +1215,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D915CF-F878-49C2-B7D6-286849B6BDEF}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -1163,7 +1229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -1171,7 +1237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -1179,7 +1245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
@@ -1187,7 +1253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1195,7 +1261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>118</v>
       </c>
@@ -1207,6 +1273,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1216,19 +1283,19 @@
   <dimension ref="A2:G14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="90.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="90.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
@@ -1242,7 +1309,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +1323,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1273,7 +1340,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1292,7 +1359,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1311,7 +1378,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1325,7 +1392,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -1339,7 +1406,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1353,7 +1420,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>91</v>
       </c>
@@ -1368,7 +1435,7 @@
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -1383,7 +1450,7 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>92</v>
       </c>
@@ -1398,7 +1465,7 @@
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>100</v>
       </c>
@@ -1413,7 +1480,7 @@
       </c>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>104</v>
       </c>
@@ -1435,6 +1502,7 @@
   <mergeCells count="1">
     <mergeCell ref="G11:G13"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1447,21 +1515,21 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="94.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1478,7 +1546,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1487,6 +1555,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{67794910-14B1-437B-AA1E-3E7E6BE04F93}"/>
   </hyperlinks>
@@ -1502,14 +1571,14 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>54</v>
       </c>
@@ -1520,17 +1589,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
@@ -1538,27 +1607,28 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/sunken_world_project.xlsx
+++ b/sunken_world_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\IdeaProjects\Sunken-World\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbydd\Documents\gitProject\SunkenWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C05E20-6DB5-48EE-8B31-82850DD4EBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400C8235-6DBA-49B5-95C3-01347C3EF772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
   </bookViews>
   <sheets>
     <sheet name="注释" sheetId="5" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -450,20 +450,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -859,34 +859,34 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
         <v>106</v>
       </c>
@@ -907,14 +907,14 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -922,7 +922,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -930,7 +930,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
@@ -938,7 +938,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -946,7 +946,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
@@ -954,7 +954,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
@@ -962,7 +962,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
         <v>94</v>
       </c>
@@ -970,7 +970,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
         <v>95</v>
       </c>
@@ -978,7 +978,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
         <v>98</v>
       </c>
@@ -997,19 +997,19 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="71.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>108</v>
       </c>
@@ -1060,12 +1060,12 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -1145,9 +1145,9 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>110</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -1177,13 +1177,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>102</v>
       </c>
@@ -1219,9 +1219,9 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>118</v>
       </c>
@@ -1286,16 +1286,16 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="90.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="90.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1340,7 +1340,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
         <v>91</v>
       </c>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
         <v>92</v>
       </c>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
         <v>100</v>
       </c>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
         <v>104</v>
       </c>
@@ -1515,21 +1515,21 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="94.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1571,14 +1571,14 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="62.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>54</v>
       </c>
@@ -1589,17 +1589,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
@@ -1607,22 +1607,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>

--- a/sunken_world_project.xlsx
+++ b/sunken_world_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbydd\Documents\gitProject\SunkenWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400C8235-6DBA-49B5-95C3-01347C3EF772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C4E647-9F78-45C1-BFF5-2DD4A7D49BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="130">
   <si>
     <t>循环呼吸器</t>
   </si>
@@ -426,12 +426,17 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>sea_shroom</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>下方方块为砂砾</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红珊瑚碎片</t>
+  </si>
+  <si>
+    <t>red_coral_fragment</t>
+  </si>
+  <si>
+    <t>museahroom</t>
   </si>
 </sst>
 </file>
@@ -901,10 +906,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8374E034-249B-4F80-8ECB-EE90BEEF9C5D}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -986,6 +991,14 @@
         <v>99</v>
       </c>
     </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -997,7 +1010,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1103,28 +1116,29 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B12" s="5" t="s">
         <v>126</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1283,7 +1297,7 @@
   <dimension ref="A2:G14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/sunken_world_project.xlsx
+++ b/sunken_world_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbydd\Documents\gitProject\SunkenWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C4E647-9F78-45C1-BFF5-2DD4A7D49BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0837D3-93E5-4C8A-AE89-1216F61C2C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{9F1E8E19-7F12-4D94-A84A-B6D4AB5447D3}"/>
   </bookViews>
   <sheets>
     <sheet name="注释" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="131">
   <si>
     <t>循环呼吸器</t>
   </si>
@@ -254,9 +254,6 @@
   </si>
   <si>
     <t>sponge_on_a_stick</t>
-  </si>
-  <si>
-    <t>water_repellent</t>
   </si>
   <si>
     <t>oxidizer</t>
@@ -437,6 +434,12 @@
   </si>
   <si>
     <t>museahroom</t>
+  </si>
+  <si>
+    <t>water_proof_paint</t>
+  </si>
+  <si>
+    <t>头部</t>
   </si>
 </sst>
 </file>
@@ -893,7 +896,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="7"/>
     </row>
@@ -908,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8374E034-249B-4F80-8ECB-EE90BEEF9C5D}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -956,7 +959,7 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -964,39 +967,39 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
         <v>95</v>
-      </c>
-      <c r="B8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
         <v>98</v>
-      </c>
-      <c r="B9" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" t="s">
         <v>127</v>
-      </c>
-      <c r="B10" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1009,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9745FCB9-6E30-4484-A5FA-5F21001E229E}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1031,10 +1034,10 @@
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1045,10 +1048,10 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1056,20 +1059,20 @@
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -1083,11 +1086,11 @@
         <v>34</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1098,7 +1101,7 @@
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1112,33 +1115,33 @@
         <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1163,18 +1166,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
         <v>110</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>111</v>
-      </c>
-      <c r="C1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1210,12 +1213,12 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="5"/>
     </row>
@@ -1229,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D915CF-F878-49C2-B7D6-286849B6BDEF}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1277,13 +1280,13 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" t="s">
         <v>119</v>
-      </c>
-      <c r="C8" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1294,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C2602A-B170-4AA5-8024-D9ED6D42ABDA}">
-  <dimension ref="A2:G14"/>
+  <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1320,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1334,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1348,7 +1351,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1365,12 +1368,12 @@
         <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1384,12 +1387,12 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1403,7 +1406,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1417,7 +1420,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1431,12 +1434,12 @@
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1445,7 +1448,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" s="5"/>
     </row>
@@ -1460,13 +1463,13 @@
         <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1475,13 +1478,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1490,13 +1493,13 @@
         <v>5</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1505,11 +1508,25 @@
         <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="5"/>
       <c r="G14" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
